--- a/角色卡/FAG敌对角色卡v0.5.xlsx
+++ b/角色卡/FAG敌对角色卡v0.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{76D100B2-BAF3-4CF0-9C0E-86590F69BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88AC4F7C-DE10-4608-BC0A-F39608560F83}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{76D100B2-BAF3-4CF0-9C0E-86590F69BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{609E6E75-0980-4A81-95C1-C1C364CB0929}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>抗魔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>耐久</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -213,6 +209,9 @@
   <si>
     <t>当前状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉</t>
   </si>
 </sst>
 </file>
@@ -557,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -565,7 +564,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -573,6 +571,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,12 +640,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
@@ -621,7 +672,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -636,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -646,59 +697,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -986,352 +984,332 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:K19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="15" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="I2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="14" t="s">
+      <c r="J14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="14" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="H16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="14" t="s">
+      <c r="H18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
+      <c r="D20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="53"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="D21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C19:K19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="F20:K20"/>
     <mergeCell ref="F21:K21"/>
@@ -1347,6 +1325,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C19:K19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/角色卡/FAG敌对角色卡v0.5.xlsx
+++ b/角色卡/FAG敌对角色卡v0.5.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abc74f70ae38cff2/文档/Others/TRPG/规则书与设定集与人物卡/Fate Atrous Grail/github/FateAtrousGrailTRPG/角色卡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{76D100B2-BAF3-4CF0-9C0E-86590F69BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{609E6E75-0980-4A81-95C1-C1C364CB0929}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{76D100B2-BAF3-4CF0-9C0E-86590F69BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E41F7525-D934-47C5-AD73-E57D0165F4B0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="敌对角色卡" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>阵营</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -159,14 +170,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>基本物理攻击力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本魔术攻击力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>基本物理防御力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,15 +182,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>连续衰减</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对抗学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始MP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -556,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -574,130 +569,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -981,70 +958,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C241CB40-9026-4A44-8919-385CA5D72303}">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="I2" s="35" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="I2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1059,61 +1036,61 @@
         <v>4</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
@@ -1123,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>17</v>
@@ -1159,17 +1136,29 @@
       <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="C14">
+        <f>G15</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="E14">
+        <f>E15</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <f>K15</f>
+        <v>0</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7"/>
     </row>
@@ -1196,124 +1185,111 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="14"/>
       <c r="E16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="H16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16">
+        <f>MAX(C15+E15+G15,C15+I15+K15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="7">
+        <f>C15*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="H16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
+      <c r="B19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
-        <v>29</v>
-      </c>
+      <c r="B20" s="24"/>
       <c r="D20" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="10" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-    </row>
-    <row r="22" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
+  <mergeCells count="18">
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K9"/>
     <mergeCell ref="B11:K11"/>
@@ -1325,11 +1301,13 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G9"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C19:K19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
